--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9-27</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-30</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,40 +596,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>32-35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>32-35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>9-27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,15 +596,40 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>2. Calibrate Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31-35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>32-35</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
